--- a/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,183 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r432429069-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>244357</t>
+  </si>
+  <si>
+    <t>432429069</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, slept great. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was hesitant, because of the reviews. The price was less than half the price of the other hotels that take pets. We got two rooms, they were both clean, everything was working as expected. Thanks for saving us $120 +   We had 2 dachshunds with us too. The floors were padded laminate of some kind, no carpeting. The pool looked very nice and clean too. We had refrigerator/freezer and microwave in our rooms also. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r372659205-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>372659205</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Clean your rooms</t>
+  </si>
+  <si>
+    <t>The floor was as if it hadnt been swept or cleaned almost ever! very sticky had to wear shoes while in the room. The shower floor clearly hadn't had a good scub in who  knows how long and the shower curtain was covered in mold. There was urine on the wall by the toilet as well as other places in the bath room. The so called comforter was just as thick as the sheet why? After asking the 2nd night for the floors to be cleaned they were not. There were pubes among other hair in the towels. No microwave in room but a fridge? Overall experience was horrible basically due to the laziness of your cleaning ladys.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The floor was as if it hadnt been swept or cleaned almost ever! very sticky had to wear shoes while in the room. The shower floor clearly hadn't had a good scub in who  knows how long and the shower curtain was covered in mold. There was urine on the wall by the toilet as well as other places in the bath room. The so called comforter was just as thick as the sheet why? After asking the 2nd night for the floors to be cleaned they were not. There were pubes among other hair in the towels. No microwave in room but a fridge? Overall experience was horrible basically due to the laziness of your cleaning ladys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r329808180-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>329808180</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Best Motel Around</t>
+  </si>
+  <si>
+    <t>My husband drives a truck OTR, and we stay here at this motel 6. The rooms are very clean. The staff is very friendly. Housekeeping does an excellent job of making sure everything is clean. I would rather stay here than at a Hilton, or Sheraton. Yes u may get more at those high priced motels but you will not get the friendless or clean rooms as you would HERE. And its very quiet here!!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r259449128-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>259449128</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Needs a good cleaning.</t>
+  </si>
+  <si>
+    <t>Room was dirty. It seemed to be a haven for hookers. Lacking basic amenities like shampoo, no coffee maker or microwave. Electrical enclosures were uncovered. I don't expect luxury from this chain, but clean isn't that hard.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r243104007-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>243104007</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>Nasty place I would not  take june bug there</t>
+  </si>
+  <si>
+    <t>They place so nasty sick place buy candy bar  also get condoms oout same meachine That dont take pick up trash pizza box all over ther place,  never ever again. The shut down health department which going turm them in too</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r240534586-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>240534586</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here, if you have to, get a room on the back side</t>
+  </si>
+  <si>
+    <t>Don't stay here, if you have to, get a room on the back side, front side faces busy interstate traffic all night long and couldn't sleep. Sheets did seem to be clean.  Bed spread was multi stained, toilet had mold ring in it.  remodeling to new Motel 6 style was poorly done. Stayed in room 305.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Garland, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Don't stay here, if you have to, get a room on the back side, front side faces busy interstate traffic all night long and couldn't sleep. Sheets did seem to be clean.  Bed spread was multi stained, toilet had mold ring in it.  remodeling to new Motel 6 style was poorly done. Stayed in room 305.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r159363043-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>159363043</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Disgusting Dirty Hotel :(</t>
+  </si>
+  <si>
+    <t>Me and My Best Friend Polly B had to Stay unexpectedly One night This Place is  gross smelled horrid  and nothing worked right toilet water was running there was no hot water the towel rack was broken off the wall and laying on the floor the tv had lines flipping on it and worst of all the top comforter had stains and matrices felt like we were sleeping on springs  parking was bad too did not wanna stay here but was to tired to drive anywhere else reminded me of a pay by the hour hotel will never stay there again and making sure non of my friends for family do what a nasty placeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Me and My Best Friend Polly B had to Stay unexpectedly One night This Place is  gross smelled horrid  and nothing worked right toilet water was running there was no hot water the towel rack was broken off the wall and laying on the floor the tv had lines flipping on it and worst of all the top comforter had stains and matrices felt like we were sleeping on springs  parking was bad too did not wanna stay here but was to tired to drive anywhere else reminded me of a pay by the hour hotel will never stay there again and making sure non of my friends for family do what a nasty placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r152822155-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>152822155</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Very Poor experience</t>
+  </si>
+  <si>
+    <t>Paid about $55 for a nights stay. The parking is horrendous. Its a three story hotel with minimal space for parking. Had to park very far from my room. The room was tiny. I mean wow. I had two double beds and they were both against the wall with walking space in the middle. TV was tiny. Very questionable looking people walking around. The bathroom door had grafitti all over it. Not bad grafitti but a bunch of children written things and scribbles all over. You would think they would paint over it atleast. Furthermore in the bathroom, there was a large hole under the sink where the trim is supposed to be. It looked like an area for mice. Both box springs were broken. I mean there was a huge hole in the middle of both beds. Atleast it was somewhat clean. Oh and by the way, putting new laminate flooring in the bathroom is not renovating. Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Paid about $55 for a nights stay. The parking is horrendous. Its a three story hotel with minimal space for parking. Had to park very far from my room. The room was tiny. I mean wow. I had two double beds and they were both against the wall with walking space in the middle. TV was tiny. Very questionable looking people walking around. The bathroom door had grafitti all over it. Not bad grafitti but a bunch of children written things and scribbles all over. You would think they would paint over it atleast. Furthermore in the bathroom, there was a large hole under the sink where the trim is supposed to be. It looked like an area for mice. Both box springs were broken. I mean there was a huge hole in the middle of both beds. Atleast it was somewhat clean. Oh and by the way, putting new laminate flooring in the bathroom is not renovating. Will not return.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +822,508 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pilzsap</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Shelby H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r372659205-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>The floor was as if it hadnt been swept or cleaned almost ever! very sticky had to wear shoes while in the room. The shower floor clearly hadn't had a good scub in who  knows how long and the shower curtain was covered in mold. There was urine on the wall by the toilet as well as other places in the bath room. The so called comforter was just as thick as the sheet why? After asking the 2nd night for the floors to be cleaned they were not. There were pubes among other hair in the towels. No microwave in room but a fridge? Overall experience was horrible basically due to the laziness of your cleaning ladys.More</t>
   </si>
   <si>
+    <t>Sharon  S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r329808180-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>SirKnowsAlot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r259449128-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>Room was dirty. It seemed to be a haven for hookers. Lacking basic amenities like shampoo, no coffee maker or microwave. Electrical enclosures were uncovered. I don't expect luxury from this chain, but clean isn't that hard.</t>
   </si>
   <si>
+    <t>Alison C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r243104007-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r240534586-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Don't stay here, if you have to, get a room on the back side, front side faces busy interstate traffic all night long and couldn't sleep. Sheets did seem to be clean.  Bed spread was multi stained, toilet had mold ring in it.  remodeling to new Motel 6 style was poorly done. Stayed in room 305.More</t>
   </si>
   <si>
+    <t>Arianna K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r159363043-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -301,6 +322,9 @@
   </si>
   <si>
     <t>Me and My Best Friend Polly B had to Stay unexpectedly One night This Place is  gross smelled horrid  and nothing worked right toilet water was running there was no hot water the towel rack was broken off the wall and laying on the floor the tv had lines flipping on it and worst of all the top comforter had stains and matrices felt like we were sleeping on springs  parking was bad too did not wanna stay here but was to tired to drive anywhere else reminded me of a pay by the hour hotel will never stay there again and making sure non of my friends for family do what a nasty placeMore</t>
+  </si>
+  <si>
+    <t>tito q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r152822155-Motel_6_Dallas_Garland-Garland_Texas.html</t>
@@ -826,43 +850,47 @@
       <c r="A2" t="n">
         <v>22386</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -876,50 +904,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22386</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>4783</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -939,50 +971,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22386</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -996,41 +1032,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22386</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1059,50 +1099,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22386</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>15009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1122,50 +1166,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22386</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1181,56 +1229,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22386</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169296</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1254,50 +1306,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22386</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169297</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1321,7 +1377,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_558.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,68 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>pilzsap</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r532726859-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>55884</t>
+  </si>
+  <si>
+    <t>244357</t>
+  </si>
+  <si>
+    <t>532726859</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>worst experience ever!</t>
+  </si>
+  <si>
+    <t>We traveled to Canada and back with our dog and stayed at several motel 6's.  We were planning on staying in Texarkana but after driving to both motel 6's there, we decided to drive several hours more in hopes of not being in a sketchy neighborhood.  BAD DECISION!  the lobby door was locked and you had to pay through a security window.  what does that tell you?  But we had already driven far longer than we wanted so we stayed.  OMG!  For starters it was smaller than our walk in closet, the cleaniness was questionable and the clientele was more than questionable.  Motel 6 should be ashamed they put theit name to this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We traveled to Canada and back with our dog and stayed at several motel 6's.  We were planning on staying in Texarkana but after driving to both motel 6's there, we decided to drive several hours more in hopes of not being in a sketchy neighborhood.  BAD DECISION!  the lobby door was locked and you had to pay through a security window.  what does that tell you?  But we had already driven far longer than we wanted so we stayed.  OMG!  For starters it was smaller than our walk in closet, the cleaniness was questionable and the clientele was more than questionable.  Motel 6 should be ashamed they put theit name to this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r474140325-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>474140325</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Okay I guess</t>
+  </si>
+  <si>
+    <t>My husband and I almost always stay at budget motels because we travel often and want to keep costs down. I'm definitely not picky and have stayed at several Motel 6 locations. I don't expect anything amazing. My only real requirement is a decent level of cleanliness and a working lock on the door. A note for everyone who has never stayed at one before: they don't provide shampoo, irons, mircrowaves, coffee makers in room, hair dryers, breakfast in the morning, etc. They provide a place to sleep, a shower, and coffee in the lobby in the mornings. A lot of them don't have fridges but this one did. I don't get why people complain about it when the info can easily be found on their website and all over the internet. Be prepared and bring everything you need. This location also had free wifi which isn't common and was a nice touch. 
+I've never had a comfortable bed at a Motel 6, but the one at this motel was especially bad. It felt like sleeping on a box spring covered in a sheet. I always bring a warm blanket and an extra pillow or two when I stay at a Motel 6 so that helped. I recommend everyone do the same because their blanket is hardly thicker than a sheet and the pillows aren't much thicker. Your stay will be much more comfortable if you accept this and prepare...My husband and I almost always stay at budget motels because we travel often and want to keep costs down. I'm definitely not picky and have stayed at several Motel 6 locations. I don't expect anything amazing. My only real requirement is a decent level of cleanliness and a working lock on the door. A note for everyone who has never stayed at one before: they don't provide shampoo, irons, mircrowaves, coffee makers in room, hair dryers, breakfast in the morning, etc. They provide a place to sleep, a shower, and coffee in the lobby in the mornings. A lot of them don't have fridges but this one did. I don't get why people complain about it when the info can easily be found on their website and all over the internet. Be prepared and bring everything you need. This location also had free wifi which isn't common and was a nice touch. I've never had a comfortable bed at a Motel 6, but the one at this motel was especially bad. It felt like sleeping on a box spring covered in a sheet. I always bring a warm blanket and an extra pillow or two when I stay at a Motel 6 so that helped. I recommend everyone do the same because their blanket is hardly thicker than a sheet and the pillows aren't much thicker. Your stay will be much more comfortable if you accept this and prepare ahead of time. Another thing about this location that really bothered me was the interstate right next to the motel, but that's hardly avoidable. Even in the middle of the night the DFW traffic is really loud. I think it wouldn't have been so loud if we had stayed on the backside, so I recommend requesting a room there if you can. The other guests were also really loud and someone was blaring music in the parking lot around 3 am and it took nearly 20 minutes for someone to come outside and tell them to turn it off, and I don't think it was a Motel 6 employee. The room left a lot to be desired in cleanliness the night we got there (well after midnight). There was a really gross smell that caused my husband and I to wrinkle our noses and look at each other immediately after entering. The shower curtain was covered in brown stains and the floor in the bathroom looked like it hadn't been swept in a long time. There were piles of dust in all the corners of the room. If it hadn't been so late and we hadn't been driving for nearly 10 hours we might have complained, but since the bed was clean we just went to sleep (after spraying a lot of perfume). The next morning we left and came back to the motel that night. The room didn't smell this time for some reason but we still had to wear flip flops in the shower and around the room because of the lack of sweeping. Overall, I would probably stay here again just because I think it's stupid to pay more than $70-$80 a night when you're just looking for a place to lay your head, and this was the cheapest motel around (I paid $55/a night at a special online rate). It definitely wasn't disgusting like some motels I've stayed at in the DFW area, but management could definitely up the cleanliness a bit and replace some shower curtains though.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I almost always stay at budget motels because we travel often and want to keep costs down. I'm definitely not picky and have stayed at several Motel 6 locations. I don't expect anything amazing. My only real requirement is a decent level of cleanliness and a working lock on the door. A note for everyone who has never stayed at one before: they don't provide shampoo, irons, mircrowaves, coffee makers in room, hair dryers, breakfast in the morning, etc. They provide a place to sleep, a shower, and coffee in the lobby in the mornings. A lot of them don't have fridges but this one did. I don't get why people complain about it when the info can easily be found on their website and all over the internet. Be prepared and bring everything you need. This location also had free wifi which isn't common and was a nice touch. 
+I've never had a comfortable bed at a Motel 6, but the one at this motel was especially bad. It felt like sleeping on a box spring covered in a sheet. I always bring a warm blanket and an extra pillow or two when I stay at a Motel 6 so that helped. I recommend everyone do the same because their blanket is hardly thicker than a sheet and the pillows aren't much thicker. Your stay will be much more comfortable if you accept this and prepare...My husband and I almost always stay at budget motels because we travel often and want to keep costs down. I'm definitely not picky and have stayed at several Motel 6 locations. I don't expect anything amazing. My only real requirement is a decent level of cleanliness and a working lock on the door. A note for everyone who has never stayed at one before: they don't provide shampoo, irons, mircrowaves, coffee makers in room, hair dryers, breakfast in the morning, etc. They provide a place to sleep, a shower, and coffee in the lobby in the mornings. A lot of them don't have fridges but this one did. I don't get why people complain about it when the info can easily be found on their website and all over the internet. Be prepared and bring everything you need. This location also had free wifi which isn't common and was a nice touch. I've never had a comfortable bed at a Motel 6, but the one at this motel was especially bad. It felt like sleeping on a box spring covered in a sheet. I always bring a warm blanket and an extra pillow or two when I stay at a Motel 6 so that helped. I recommend everyone do the same because their blanket is hardly thicker than a sheet and the pillows aren't much thicker. Your stay will be much more comfortable if you accept this and prepare ahead of time. Another thing about this location that really bothered me was the interstate right next to the motel, but that's hardly avoidable. Even in the middle of the night the DFW traffic is really loud. I think it wouldn't have been so loud if we had stayed on the backside, so I recommend requesting a room there if you can. The other guests were also really loud and someone was blaring music in the parking lot around 3 am and it took nearly 20 minutes for someone to come outside and tell them to turn it off, and I don't think it was a Motel 6 employee. The room left a lot to be desired in cleanliness the night we got there (well after midnight). There was a really gross smell that caused my husband and I to wrinkle our noses and look at each other immediately after entering. The shower curtain was covered in brown stains and the floor in the bathroom looked like it hadn't been swept in a long time. There were piles of dust in all the corners of the room. If it hadn't been so late and we hadn't been driving for nearly 10 hours we might have complained, but since the bed was clean we just went to sleep (after spraying a lot of perfume). The next morning we left and came back to the motel that night. The room didn't smell this time for some reason but we still had to wear flip flops in the shower and around the room because of the lack of sweeping. Overall, I would probably stay here again just because I think it's stupid to pay more than $70-$80 a night when you're just looking for a place to lay your head, and this was the cheapest motel around (I paid $55/a night at a special online rate). It definitely wasn't disgusting like some motels I've stayed at in the DFW area, but management could definitely up the cleanliness a bit and replace some shower curtains though.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r432429069-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
-    <t>55884</t>
-  </si>
-  <si>
-    <t>244357</t>
-  </si>
-  <si>
     <t>432429069</t>
   </si>
   <si>
@@ -177,12 +224,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Shelby H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r372659205-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -204,9 +245,6 @@
     <t>The floor was as if it hadnt been swept or cleaned almost ever! very sticky had to wear shoes while in the room. The shower floor clearly hadn't had a good scub in who  knows how long and the shower curtain was covered in mold. There was urine on the wall by the toilet as well as other places in the bath room. The so called comforter was just as thick as the sheet why? After asking the 2nd night for the floors to be cleaned they were not. There were pubes among other hair in the towels. No microwave in room but a fridge? Overall experience was horrible basically due to the laziness of your cleaning ladys.More</t>
   </si>
   <si>
-    <t>Sharon  S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r329808180-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -228,7 +266,61 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>SirKnowsAlot</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r319773190-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>319773190</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Never stay there</t>
+  </si>
+  <si>
+    <t>They won't let you see rm till paid for you can't get refund. I had red stains in carpet only one light work in room no tv no phone spider Webb's all in corners curtains like 25yrs old full of dust. Sneeze all night slept in clothes on to of cover bath tub horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Garland, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>They won't let you see rm till paid for you can't get refund. I had red stains in carpet only one light work in room no tv no phone spider Webb's all in corners curtains like 25yrs old full of dust. Sneeze all night slept in clothes on to of cover bath tub horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r289563152-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>289563152</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Gypsies, Tramps and Thieves</t>
+  </si>
+  <si>
+    <t>Every time I hear this Cher song I am reminded of this place!I ride a motorcycle and the night I was there my plate was switched with a Harley that was stolen out of parking lot. Thank God the investigator brought me my plate back. He even put it back on my bike for me and used special screws so it couldn't happen again.Ok, so I am a chick on a bike. I just love to ride.The back side is quieter, but you have to park farther from your room in some cases.The showers are really the best thing about the property, though I have to admit having a fear that Norman Bates worked there and I was worried about a remake of the shower scene in Psycho.Regardless of where you stay here don't count on a working refrigerator. And if you do have issues expect management to ignore you.I nominate this place for Gordon Ramsay's Hotel Nightmates.And watch what is sprayed in your room. It won't affect the bags or cleanliness,but it did trigger my asthma!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Garland, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Every time I hear this Cher song I am reminded of this place!I ride a motorcycle and the night I was there my plate was switched with a Harley that was stolen out of parking lot. Thank God the investigator brought me my plate back. He even put it back on my bike for me and used special screws so it couldn't happen again.Ok, so I am a chick on a bike. I just love to ride.The back side is quieter, but you have to park farther from your room in some cases.The showers are really the best thing about the property, though I have to admit having a fear that Norman Bates worked there and I was worried about a remake of the shower scene in Psycho.Regardless of where you stay here don't count on a working refrigerator. And if you do have issues expect management to ignore you.I nominate this place for Gordon Ramsay's Hotel Nightmates.And watch what is sprayed in your room. It won't affect the bags or cleanliness,but it did trigger my asthma!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r259449128-Motel_6_Dallas_Garland-Garland_Texas.html</t>
@@ -246,9 +338,6 @@
     <t>Room was dirty. It seemed to be a haven for hookers. Lacking basic amenities like shampoo, no coffee maker or microwave. Electrical enclosures were uncovered. I don't expect luxury from this chain, but clean isn't that hard.</t>
   </si>
   <si>
-    <t>Alison C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r243104007-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -267,9 +356,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Robert R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r240534586-Motel_6_Dallas_Garland-Garland_Texas.html</t>
   </si>
   <si>
@@ -288,9 +374,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Dallas - Garland, responded to this reviewResponded November 21, 2014</t>
   </si>
   <si>
@@ -300,7 +383,40 @@
     <t>Don't stay here, if you have to, get a room on the back side, front side faces busy interstate traffic all night long and couldn't sleep. Sheets did seem to be clean.  Bed spread was multi stained, toilet had mold ring in it.  remodeling to new Motel 6 style was poorly done. Stayed in room 305.More</t>
   </si>
   <si>
-    <t>Arianna K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r218517980-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>218517980</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Next time we will check the reviews</t>
+  </si>
+  <si>
+    <t>Asked for a room with 2 beds. Got charged for 2 rooms.  Instead of finishing our check in, made us wait for credit so she could check in next guest. Tiny room. Cigarette holes in sheets. Towel shelves were dirty.  Floor felt grimey.  Kept my flip flops on.  Not a good experience.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r195958079-Motel_6_Dallas_Garland-Garland_Texas.html</t>
+  </si>
+  <si>
+    <t>195958079</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Very dirty!!!</t>
+  </si>
+  <si>
+    <t>When I went into the restroom, it had someone's pee on the toilet. ..pubic and head hair in the shower, the floor looked as if it hadn't been swept in a while. .. no fridge or microwave. ...When I asked for towels in the morning for a shower the manager said I had to wait until after 10 when the (so called) cleaning staff came in...for 65.00 this room should have been cleaned!!! Disgusting.... waste of money... will never return to hotel!!!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r159363043-Motel_6_Dallas_Garland-Garland_Texas.html</t>
@@ -322,9 +438,6 @@
   </si>
   <si>
     <t>Me and My Best Friend Polly B had to Stay unexpectedly One night This Place is  gross smelled horrid  and nothing worked right toilet water was running there was no hot water the towel rack was broken off the wall and laying on the floor the tv had lines flipping on it and worst of all the top comforter had stains and matrices felt like we were sleeping on springs  parking was bad too did not wanna stay here but was to tired to drive anywhere else reminded me of a pay by the hour hotel will never stay there again and making sure non of my friends for family do what a nasty placeMore</t>
-  </si>
-  <si>
-    <t>tito q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55884-d244357-r152822155-Motel_6_Dallas_Garland-Garland_Texas.html</t>
@@ -850,120 +963,116 @@
       <c r="A2" t="n">
         <v>22386</v>
       </c>
-      <c r="B2" t="n">
-        <v>169293</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22386</v>
       </c>
-      <c r="B3" t="n">
-        <v>4783</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -978,47 +1087,43 @@
       <c r="A4" t="n">
         <v>22386</v>
       </c>
-      <c r="B4" t="n">
-        <v>169294</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1032,66 +1137,62 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22386</v>
       </c>
-      <c r="B5" t="n">
-        <v>169295</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
       <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1099,273 +1200,237 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22386</v>
       </c>
-      <c r="B6" t="n">
-        <v>15009</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22386</v>
       </c>
-      <c r="B7" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22386</v>
       </c>
-      <c r="B8" t="n">
-        <v>169296</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22386</v>
       </c>
-      <c r="B9" t="n">
-        <v>169297</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
       <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="n">
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1377,7 +1442,387 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
         <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22386</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
